--- a/resources/repository/ValidData_LibertyInsurance.xlsx
+++ b/resources/repository/ValidData_LibertyInsurance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -409,13 +409,16 @@
   </si>
   <si>
     <t>50000</t>
+  </si>
+  <si>
+    <t>January 31, 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -470,6 +473,17 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -504,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -540,6 +554,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -764,7 +784,7 @@
   <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1014,11 +1034,11 @@
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
-      <c r="AM2" s="7" t="s">
-        <v>115</v>
+      <c r="AM2" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
@@ -1116,14 +1136,16 @@
       <c r="AI3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AJ3" s="6"/>
+      <c r="AJ3" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>97</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>70</v>
       </c>
       <c r="AI4" s="5"/>
-      <c r="AJ4" s="6"/>
+      <c r="AJ4" s="14"/>
       <c r="AK4" s="9" t="s">
         <v>114</v>
       </c>
@@ -1322,7 +1344,7 @@
         <v>70</v>
       </c>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
+      <c r="AJ5" s="14"/>
       <c r="AK5" s="5" t="s">
         <v>125</v>
       </c>
@@ -1331,7 +1353,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1417,14 +1439,16 @@
       <c r="AI6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AJ6" s="6"/>
+      <c r="AJ6" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1471,5 +1495,6 @@
     <hyperlink ref="L2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>